--- a/medicine/Enfance/Karl_Bruckner/Karl_Bruckner.xlsx
+++ b/medicine/Enfance/Karl_Bruckner/Karl_Bruckner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Bruckner (né le 9 janvier 1906 à Vienne, mort le 25 octobre 1982 dans la même ville) est un écrivain autrichien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce fils d'un ouvrier de l'imprimerie grandit dans le quartier d'Ottakring. Il apprend le métier de mécanicien automobile. Pendant l'entre-deux guerres, il émigre au Brésil, mais revient à Vienne fin 1937. Il commence à écrire en 1946 et se fait connaître comme auteur de livres pour la jeunesse.
 Dans ses livres, il fait en sort de définir une éducation pour une humanité responsable et soucieuse de la communauté. Un de ses plus grands succès est, avec un tirage de 130 000 exemplaires, le livre Die Spatzenelf. Inspiré de son enfance, il raconte l'histoire d'une équipe de football composée d'enfants des quartiers populaires. Il est encore aujourd'hui un classique de la littérature pour la jeunesse en Autriche.
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Das wunderbare Leben. Ein Zukunftsroman aus dem Jahre 2443, 1948
 Der Diamant des Tobias Amberger, 1949
@@ -604,12 +620,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1958 : (international) « Honor List »[1] de l' IBBY, pour Der goldene Phrao
-1960 : (international) « Runner-Up List »[1], par l' IBBY, catégorie Auteur, pour Lole, di Türkin
-1962 : (international) « Honor List »[1] de l' IBBY, pour Sadako will leben
-1966 : (international) « Hightly Commended Authors »[1] de l' IBBY pour l'ensemble de son œuvre</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1958 : (international) « Honor List » de l' IBBY, pour Der goldene Phrao
+1960 : (international) « Runner-Up List », par l' IBBY, catégorie Auteur, pour Lole, di Türkin
+1962 : (international) « Honor List » de l' IBBY, pour Sadako will leben
+1966 : (international) « Hightly Commended Authors » de l' IBBY pour l'ensemble de son œuvre</t>
         </is>
       </c>
     </row>
